--- a/Calculs/PH3/DataBase_PH3_FileB_V6.xlsx
+++ b/Calculs/PH3/DataBase_PH3_FileB_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D07D207-292C-4E67-BD65-F8820669CFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB20A420-F846-45C2-97F3-4DF1545A9061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -711,12 +711,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -763,14 +758,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1119,7 +1107,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y2" sqref="Y2:AF60"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1291,31 +1279,31 @@
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="9">
-        <f t="shared" ref="Y2:Y3" si="0">IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),V2+X2*V2,IF(A1&lt;A2,V2-X3*V3/2,IF(A2&lt;A3,V2-(X1*V1)/2,V2-(X3*V3+X1*V1)/2))),0)</f>
+        <f t="shared" ref="Y2" si="0">IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),V2+X2*V2,IF(A1&lt;A2,V2-X3*V3/2,IF(A2&lt;A3,V2-(X1*V1)/2,V2-(X3*V3+X1*V1)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="9">
-        <f t="shared" ref="Z2:Z3" si="1">IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),W2+X2*W2,IF(A1&lt;A2,W2-X3*W3/2,IF(A2&lt;A3,W2-(X1*W1)/2,W2-(X3*W3+X1*W1)/2))),0)</f>
+        <f t="shared" ref="Z2" si="1">IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),W2+X2*W2,IF(A1&lt;A2,W2-X3*W3/2,IF(A2&lt;A3,W2-(X1*W1)/2,W2-(X3*W3+X1*W1)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="AA2" s="3">
         <v>0</v>
       </c>
       <c r="AB2" s="9">
-        <f t="shared" ref="AB2:AB3" si="2">Y2*(1-AA2)</f>
+        <f t="shared" ref="AB2" si="2">Y2*(1-AA2)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="9">
-        <f t="shared" ref="AC2:AC3" si="3">Y2*AA2 + Z2</f>
+        <f t="shared" ref="AC2" si="3">Y2*AA2 + Z2</f>
         <v>0</v>
       </c>
       <c r="AD2" s="8">
-        <f t="shared" ref="AD2:AD3" si="4">1.35*Y2+1.5*Z2</f>
+        <f t="shared" ref="AD2" si="4">1.35*Y2+1.5*Z2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="8"/>
       <c r="AF2" s="9">
-        <f t="shared" ref="AF2:AF3" si="5">AB2+AC2</f>
+        <f t="shared" ref="AF2" si="5">AB2+AC2</f>
         <v>0</v>
       </c>
       <c r="AP2" s="2"/>
@@ -1323,7 +1311,7 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A71" si="6">IF(B3=B2,A2,A2+1)</f>
+        <f t="shared" ref="A3:A60" si="6">IF(B3=B2,A2,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1378,13 +1366,13 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V3" s="2">
         <v>34.503680000000003</v>
@@ -1397,32 +1385,30 @@
         <v>0</v>
       </c>
       <c r="Y3" s="9">
-        <f t="shared" ref="Y3:Y60" si="8">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
-        <v>34.503680000000003</v>
+        <v>26</v>
       </c>
       <c r="Z3" s="9">
-        <f t="shared" ref="Z3:Z60" si="9">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
-        <v>10.480639999999999</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
       <c r="AB3" s="9">
-        <f t="shared" ref="AB3:AB60" si="10">Y3*(1-AA3)</f>
-        <v>34.503680000000003</v>
+        <f t="shared" ref="AB3:AB60" si="8">Y3*(1-AA3)</f>
+        <v>26</v>
       </c>
       <c r="AC3" s="9">
-        <f t="shared" ref="AC3:AC60" si="11">Y3*AA3 + Z3</f>
-        <v>10.480639999999999</v>
+        <f t="shared" ref="AC3:AC60" si="9">Y3*AA3 + Z3</f>
+        <v>10</v>
       </c>
       <c r="AD3" s="8">
-        <f t="shared" ref="AD3:AD60" si="12">1.35*Y3+1.5*Z3</f>
-        <v>62.300928000000006</v>
+        <f t="shared" ref="AD3:AD60" si="10">1.35*Y3+1.5*Z3</f>
+        <v>50.1</v>
       </c>
       <c r="AE3" s="8"/>
       <c r="AF3" s="9">
-        <f t="shared" ref="AF3:AF60" si="13">AB3+AC3</f>
-        <v>44.984320000000004</v>
+        <f t="shared" ref="AF3:AF60" si="11">AB3+AC3</f>
+        <v>36</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
@@ -1490,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2">
         <v>96.69</v>
@@ -1502,32 +1488,30 @@
         <v>0</v>
       </c>
       <c r="Y4" s="9">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="9">
         <f t="shared" si="8"/>
-        <v>96.69</v>
-      </c>
-      <c r="Z4" s="9">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="9">
         <f t="shared" si="9"/>
-        <v>29.369999999999997</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="9">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="8">
         <f t="shared" si="10"/>
-        <v>96.69</v>
-      </c>
-      <c r="AC4" s="9">
-        <f t="shared" si="11"/>
-        <v>29.369999999999997</v>
-      </c>
-      <c r="AD4" s="8">
-        <f t="shared" si="12"/>
-        <v>174.5865</v>
+        <v>166.5</v>
       </c>
       <c r="AE4" s="8"/>
       <c r="AF4" s="9">
-        <f t="shared" si="13"/>
-        <v>126.06</v>
+        <f t="shared" si="11"/>
+        <v>120</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
@@ -1589,13 +1573,13 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V5" s="2">
         <v>48.005119999999998</v>
@@ -1604,36 +1588,34 @@
         <v>14.581759999999999</v>
       </c>
       <c r="X5" s="7" t="str">
-        <f t="shared" ref="X5" si="14">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X5" si="12">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y5" s="9">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9">
         <f t="shared" si="8"/>
-        <v>48.005119999999998</v>
-      </c>
-      <c r="Z5" s="9">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="9">
         <f t="shared" si="9"/>
-        <v>14.581759999999999</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="8">
         <f t="shared" si="10"/>
-        <v>48.005119999999998</v>
-      </c>
-      <c r="AC5" s="9">
-        <f t="shared" si="11"/>
-        <v>14.581759999999999</v>
-      </c>
-      <c r="AD5" s="8">
-        <f t="shared" si="12"/>
-        <v>86.679552000000001</v>
+        <v>72.45</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="9">
-        <f t="shared" si="13"/>
-        <v>62.586879999999994</v>
+        <f t="shared" si="11"/>
+        <v>52</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
@@ -1695,13 +1677,13 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V6" s="2">
         <v>125.697</v>
@@ -1713,32 +1695,30 @@
         <v>0</v>
       </c>
       <c r="Y6" s="9">
+        <v>114</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>40.5</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
         <f t="shared" si="8"/>
-        <v>125.697</v>
-      </c>
-      <c r="Z6" s="9">
+        <v>114</v>
+      </c>
+      <c r="AC6" s="9">
         <f t="shared" si="9"/>
-        <v>38.181000000000004</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
+        <v>40.5</v>
+      </c>
+      <c r="AD6" s="8">
         <f t="shared" si="10"/>
-        <v>125.697</v>
-      </c>
-      <c r="AC6" s="9">
-        <f t="shared" si="11"/>
-        <v>38.181000000000004</v>
-      </c>
-      <c r="AD6" s="8">
-        <f t="shared" si="12"/>
-        <v>226.96245000000002</v>
+        <v>214.65</v>
       </c>
       <c r="AE6" s="8"/>
       <c r="AF6" s="9">
-        <f t="shared" si="13"/>
-        <v>163.87800000000001</v>
+        <f t="shared" si="11"/>
+        <v>154.5</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
@@ -1800,13 +1780,13 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V7" s="2">
         <v>48.005119999999998</v>
@@ -1815,36 +1795,34 @@
         <v>14.581759999999999</v>
       </c>
       <c r="X7" s="7" t="str">
-        <f t="shared" ref="X7" si="15">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X7" si="13">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y7" s="9">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>17</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
         <f t="shared" si="8"/>
-        <v>48.005119999999998</v>
-      </c>
-      <c r="Z7" s="9">
+        <v>37</v>
+      </c>
+      <c r="AC7" s="9">
         <f t="shared" si="9"/>
-        <v>14.581759999999999</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
+        <v>17</v>
+      </c>
+      <c r="AD7" s="8">
         <f t="shared" si="10"/>
-        <v>48.005119999999998</v>
-      </c>
-      <c r="AC7" s="9">
-        <f t="shared" si="11"/>
-        <v>14.581759999999999</v>
-      </c>
-      <c r="AD7" s="8">
-        <f t="shared" si="12"/>
-        <v>86.679552000000001</v>
+        <v>75.45</v>
       </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="9">
-        <f t="shared" si="13"/>
-        <v>62.586879999999994</v>
+        <f t="shared" si="11"/>
+        <v>54</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
@@ -1906,13 +1884,13 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" s="2">
         <v>128.92000000000002</v>
@@ -1924,32 +1902,30 @@
         <v>0</v>
       </c>
       <c r="Y8" s="9">
+        <v>119</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>43</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
         <f t="shared" si="8"/>
-        <v>128.92000000000002</v>
-      </c>
-      <c r="Z8" s="9">
+        <v>119</v>
+      </c>
+      <c r="AC8" s="9">
         <f t="shared" si="9"/>
-        <v>39.160000000000004</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="9">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="8">
         <f t="shared" si="10"/>
-        <v>128.92000000000002</v>
-      </c>
-      <c r="AC8" s="9">
-        <f t="shared" si="11"/>
-        <v>39.160000000000004</v>
-      </c>
-      <c r="AD8" s="8">
-        <f t="shared" si="12"/>
-        <v>232.78200000000004</v>
+        <v>225.15</v>
       </c>
       <c r="AE8" s="8"/>
       <c r="AF8" s="9">
-        <f t="shared" si="13"/>
-        <v>168.08</v>
+        <f t="shared" si="11"/>
+        <v>162</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
@@ -2011,13 +1987,13 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V9" s="2">
         <v>53.255679999999991</v>
@@ -2026,36 +2002,34 @@
         <v>16.176639999999999</v>
       </c>
       <c r="X9" s="7" t="str">
-        <f t="shared" ref="X9" si="16">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X9" si="14">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y9" s="9">
+        <v>41</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
         <f t="shared" si="8"/>
-        <v>53.255679999999991</v>
-      </c>
-      <c r="Z9" s="9">
+        <v>41</v>
+      </c>
+      <c r="AC9" s="9">
         <f t="shared" si="9"/>
-        <v>16.176639999999999</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD9" s="8">
         <f t="shared" si="10"/>
-        <v>53.255679999999991</v>
-      </c>
-      <c r="AC9" s="9">
-        <f t="shared" si="11"/>
-        <v>16.176639999999999</v>
-      </c>
-      <c r="AD9" s="8">
-        <f t="shared" si="12"/>
-        <v>96.160128</v>
+        <v>82.35</v>
       </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="9">
-        <f t="shared" si="13"/>
-        <v>69.43231999999999</v>
+        <f t="shared" si="11"/>
+        <v>59</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
@@ -2116,13 +2090,13 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>3.8400000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V10" s="2">
         <v>135.36600000000001</v>
@@ -2134,32 +2108,30 @@
         <v>0</v>
       </c>
       <c r="Y10" s="9">
+        <v>122.5</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>36</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
         <f t="shared" si="8"/>
-        <v>135.36600000000001</v>
-      </c>
-      <c r="Z10" s="9">
+        <v>122.5</v>
+      </c>
+      <c r="AC10" s="9">
         <f t="shared" si="9"/>
-        <v>41.118000000000002</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="9">
+        <v>36</v>
+      </c>
+      <c r="AD10" s="8">
         <f t="shared" si="10"/>
-        <v>135.36600000000001</v>
-      </c>
-      <c r="AC10" s="9">
-        <f t="shared" si="11"/>
-        <v>41.118000000000002</v>
-      </c>
-      <c r="AD10" s="8">
-        <f t="shared" si="12"/>
-        <v>244.42110000000002</v>
+        <v>219.375</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="9">
-        <f t="shared" si="13"/>
-        <v>176.48400000000001</v>
+        <f t="shared" si="11"/>
+        <v>158.5</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
@@ -2221,13 +2193,13 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V11" s="2">
         <v>53.255679999999991</v>
@@ -2236,36 +2208,34 @@
         <v>16.176639999999999</v>
       </c>
       <c r="X11" s="7" t="str">
-        <f t="shared" ref="X11" si="17">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X11" si="15">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y11" s="9">
+        <v>41</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="9">
         <f t="shared" si="8"/>
-        <v>53.255679999999991</v>
-      </c>
-      <c r="Z11" s="9">
+        <v>41</v>
+      </c>
+      <c r="AC11" s="9">
         <f t="shared" si="9"/>
-        <v>16.176639999999999</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="9">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="8">
         <f t="shared" si="10"/>
-        <v>53.255679999999991</v>
-      </c>
-      <c r="AC11" s="9">
-        <f t="shared" si="11"/>
-        <v>16.176639999999999</v>
-      </c>
-      <c r="AD11" s="8">
-        <f t="shared" si="12"/>
-        <v>96.160128</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="AE11" s="8"/>
       <c r="AF11" s="9">
-        <f t="shared" si="13"/>
-        <v>69.43231999999999</v>
+        <f t="shared" si="11"/>
+        <v>53</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
@@ -2326,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="S12">
-        <v>3.8400000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V12" s="2">
         <v>138.589</v>
@@ -2344,32 +2314,30 @@
         <v>0</v>
       </c>
       <c r="Y12" s="9">
+        <v>129</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9">
         <f t="shared" si="8"/>
-        <v>138.589</v>
-      </c>
-      <c r="Z12" s="9">
+        <v>129</v>
+      </c>
+      <c r="AC12" s="9">
         <f t="shared" si="9"/>
-        <v>42.097000000000001</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="AD12" s="8">
         <f t="shared" si="10"/>
-        <v>138.589</v>
-      </c>
-      <c r="AC12" s="9">
-        <f t="shared" si="11"/>
-        <v>42.097000000000001</v>
-      </c>
-      <c r="AD12" s="8">
-        <f t="shared" si="12"/>
-        <v>250.24065000000002</v>
+        <v>230.4</v>
       </c>
       <c r="AE12" s="8"/>
       <c r="AF12" s="9">
-        <f t="shared" si="13"/>
-        <v>180.68600000000001</v>
+        <f t="shared" si="11"/>
+        <v>166.5</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
@@ -2431,13 +2399,13 @@
         <v>1</v>
       </c>
       <c r="S13">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V13" s="2">
         <v>55.505919999999996</v>
@@ -2446,36 +2414,34 @@
         <v>16.86016</v>
       </c>
       <c r="X13" s="7" t="str">
-        <f t="shared" ref="X13" si="18">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X13" si="16">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y13" s="9">
+        <v>42</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>18</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
         <f t="shared" si="8"/>
-        <v>55.505919999999996</v>
-      </c>
-      <c r="Z13" s="9">
+        <v>42</v>
+      </c>
+      <c r="AC13" s="9">
         <f t="shared" si="9"/>
-        <v>16.86016</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD13" s="8">
         <f t="shared" si="10"/>
-        <v>55.505919999999996</v>
-      </c>
-      <c r="AC13" s="9">
-        <f t="shared" si="11"/>
-        <v>16.86016</v>
-      </c>
-      <c r="AD13" s="8">
-        <f t="shared" si="12"/>
-        <v>100.223232</v>
+        <v>83.7</v>
       </c>
       <c r="AE13" s="8"/>
       <c r="AF13" s="9">
-        <f t="shared" si="13"/>
-        <v>72.366079999999997</v>
+        <f t="shared" si="11"/>
+        <v>60</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
@@ -2537,13 +2503,13 @@
         <v>1</v>
       </c>
       <c r="S14">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V14" s="2">
         <v>124.40779999999999</v>
@@ -2555,32 +2521,30 @@
         <v>0</v>
       </c>
       <c r="Y14" s="9">
+        <v>115</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>40.5</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
         <f t="shared" si="8"/>
-        <v>124.40779999999999</v>
-      </c>
-      <c r="Z14" s="9">
+        <v>115</v>
+      </c>
+      <c r="AC14" s="9">
         <f t="shared" si="9"/>
-        <v>37.789400000000001</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="9">
+        <v>40.5</v>
+      </c>
+      <c r="AD14" s="8">
         <f t="shared" si="10"/>
-        <v>124.40779999999999</v>
-      </c>
-      <c r="AC14" s="9">
-        <f t="shared" si="11"/>
-        <v>37.789400000000001</v>
-      </c>
-      <c r="AD14" s="8">
-        <f t="shared" si="12"/>
-        <v>224.63463000000002</v>
+        <v>216</v>
       </c>
       <c r="AE14" s="8"/>
       <c r="AF14" s="9">
-        <f t="shared" si="13"/>
-        <v>162.19720000000001</v>
+        <f t="shared" si="11"/>
+        <v>155.5</v>
       </c>
       <c r="AP14" s="2"/>
     </row>
@@ -2641,13 +2605,13 @@
         <v>1</v>
       </c>
       <c r="S15">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V15" s="2">
         <v>48.755200000000002</v>
@@ -2656,36 +2620,34 @@
         <v>14.8096</v>
       </c>
       <c r="X15" s="7" t="str">
-        <f t="shared" ref="X15" si="19">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X15" si="17">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y15" s="9">
+        <v>33.6</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
         <f t="shared" si="8"/>
-        <v>48.755200000000002</v>
-      </c>
-      <c r="Z15" s="9">
+        <v>33.6</v>
+      </c>
+      <c r="AC15" s="9">
         <f t="shared" si="9"/>
-        <v>14.8096</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD15" s="8">
         <f t="shared" si="10"/>
-        <v>48.755200000000002</v>
-      </c>
-      <c r="AC15" s="9">
-        <f t="shared" si="11"/>
-        <v>14.8096</v>
-      </c>
-      <c r="AD15" s="8">
-        <f t="shared" si="12"/>
-        <v>88.033920000000009</v>
+        <v>67.860000000000014</v>
       </c>
       <c r="AE15" s="8"/>
       <c r="AF15" s="9">
-        <f t="shared" si="13"/>
-        <v>63.564800000000005</v>
+        <f t="shared" si="11"/>
+        <v>48.6</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
@@ -2747,13 +2709,13 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V16" s="2">
         <v>121.82939999999999</v>
@@ -2765,32 +2727,30 @@
         <v>0</v>
       </c>
       <c r="Y16" s="9">
+        <v>112.5</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
         <f t="shared" si="8"/>
-        <v>121.82939999999999</v>
-      </c>
-      <c r="Z16" s="9">
+        <v>112.5</v>
+      </c>
+      <c r="AC16" s="9">
         <f t="shared" si="9"/>
-        <v>37.0062</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="AD16" s="8">
         <f t="shared" si="10"/>
-        <v>121.82939999999999</v>
-      </c>
-      <c r="AC16" s="9">
-        <f t="shared" si="11"/>
-        <v>37.0062</v>
-      </c>
-      <c r="AD16" s="8">
-        <f t="shared" si="12"/>
-        <v>219.97899000000001</v>
+        <v>208.125</v>
       </c>
       <c r="AE16" s="8"/>
       <c r="AF16" s="9">
-        <f t="shared" si="13"/>
-        <v>158.8356</v>
+        <f t="shared" si="11"/>
+        <v>150</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
@@ -2852,13 +2812,13 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V17" s="2">
         <v>57.756160000000001</v>
@@ -2867,41 +2827,43 @@
         <v>17.543679999999998</v>
       </c>
       <c r="X17" s="7" t="str">
-        <f t="shared" ref="X17" si="20">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X17" si="18">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y17" s="9">
+        <v>44</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
         <f t="shared" si="8"/>
-        <v>57.756160000000001</v>
-      </c>
-      <c r="Z17" s="9">
+        <v>44</v>
+      </c>
+      <c r="AC17" s="9">
         <f t="shared" si="9"/>
-        <v>17.543679999999998</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="9">
+        <v>16</v>
+      </c>
+      <c r="AD17" s="8">
         <f t="shared" si="10"/>
-        <v>57.756160000000001</v>
-      </c>
-      <c r="AC17" s="9">
-        <f t="shared" si="11"/>
-        <v>17.543679999999998</v>
-      </c>
-      <c r="AD17" s="8">
-        <f t="shared" si="12"/>
-        <v>104.28633600000001</v>
+        <v>83.4</v>
       </c>
       <c r="AE17" s="8"/>
       <c r="AF17" s="9">
-        <f t="shared" si="13"/>
-        <v>75.299840000000003</v>
+        <f t="shared" si="11"/>
+        <v>60</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="B18" t="s">
         <v>44</v>
       </c>
@@ -2966,32 +2928,26 @@
         <v>0</v>
       </c>
       <c r="X18" s="4"/>
-      <c r="Y18" s="9">
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="AC18" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="9">
+      <c r="AD18" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="8">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP18" s="2"/>
@@ -2999,7 +2955,7 @@
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f>IF(B19=B17,A17,A17+1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="B19" t="s">
@@ -3054,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" s="2">
         <v>51.755520000000004</v>
@@ -3069,36 +3025,34 @@
         <v>15.72096</v>
       </c>
       <c r="X19" s="7" t="str">
-        <f t="shared" ref="X19" si="21">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X19" si="19">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y19" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
         <f t="shared" si="8"/>
-        <v>46.969365000000003</v>
-      </c>
-      <c r="Z19" s="9">
+        <v>40</v>
+      </c>
+      <c r="AC19" s="9">
         <f t="shared" si="9"/>
-        <v>14.267144999999999</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD19" s="8">
         <f t="shared" si="10"/>
-        <v>46.969365000000003</v>
-      </c>
-      <c r="AC19" s="9">
-        <f t="shared" si="11"/>
-        <v>14.267144999999999</v>
-      </c>
-      <c r="AD19" s="8">
-        <f t="shared" si="12"/>
-        <v>84.809360249999997</v>
+        <v>76.5</v>
       </c>
       <c r="AE19" s="8"/>
       <c r="AF19" s="9">
-        <f t="shared" si="13"/>
-        <v>61.236510000000003</v>
+        <f t="shared" si="11"/>
+        <v>55</v>
       </c>
       <c r="AP19" s="2"/>
     </row>
@@ -3165,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="2">
         <v>87.021000000000001</v>
@@ -3177,32 +3131,30 @@
         <v>0.11</v>
       </c>
       <c r="Y20" s="9">
+        <v>79</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>30</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
         <f t="shared" si="8"/>
-        <v>96.593310000000002</v>
-      </c>
-      <c r="Z20" s="9">
+        <v>79</v>
+      </c>
+      <c r="AC20" s="9">
         <f t="shared" si="9"/>
-        <v>29.340630000000001</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="9">
+        <v>30</v>
+      </c>
+      <c r="AD20" s="8">
         <f t="shared" si="10"/>
-        <v>96.593310000000002</v>
-      </c>
-      <c r="AC20" s="9">
-        <f t="shared" si="11"/>
-        <v>29.340630000000001</v>
-      </c>
-      <c r="AD20" s="8">
-        <f t="shared" si="12"/>
-        <v>174.4119135</v>
+        <v>151.65</v>
       </c>
       <c r="AE20" s="8"/>
       <c r="AF20" s="9">
-        <f t="shared" si="13"/>
-        <v>125.93394000000001</v>
+        <f t="shared" si="11"/>
+        <v>109</v>
       </c>
       <c r="AP20" s="2"/>
     </row>
@@ -3263,13 +3215,13 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" s="2">
         <v>11.251199999999999</v>
@@ -3278,36 +3230,34 @@
         <v>3.4175999999999997</v>
       </c>
       <c r="X21" s="7" t="str">
-        <f t="shared" ref="X21" si="22">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X21" si="20">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y21" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>12</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="9">
         <f t="shared" si="8"/>
-        <v>-4.6543050000000026</v>
-      </c>
-      <c r="Z21" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="AC21" s="9">
         <f t="shared" si="9"/>
-        <v>-1.4137650000000002</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="9">
+        <v>12</v>
+      </c>
+      <c r="AD21" s="8">
         <f t="shared" si="10"/>
-        <v>-4.6543050000000026</v>
-      </c>
-      <c r="AC21" s="9">
-        <f t="shared" si="11"/>
-        <v>-1.4137650000000002</v>
-      </c>
-      <c r="AD21" s="8">
-        <f t="shared" si="12"/>
-        <v>-8.4039592500000033</v>
+        <v>29.475000000000001</v>
       </c>
       <c r="AE21" s="8"/>
       <c r="AF21" s="9">
-        <f t="shared" si="13"/>
-        <v>-6.0680700000000023</v>
+        <f t="shared" si="11"/>
+        <v>20.5</v>
       </c>
       <c r="AP21" s="2"/>
     </row>
@@ -3374,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2">
         <v>88.954800000000006</v>
@@ -3386,32 +3336,30 @@
         <v>0.25</v>
       </c>
       <c r="Y22" s="9">
+        <v>81</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>33</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
         <f t="shared" si="8"/>
-        <v>111.1935</v>
-      </c>
-      <c r="Z22" s="9">
+        <v>81</v>
+      </c>
+      <c r="AC22" s="9">
         <f t="shared" si="9"/>
-        <v>33.775500000000001</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="9">
+        <v>33</v>
+      </c>
+      <c r="AD22" s="8">
         <f t="shared" si="10"/>
-        <v>111.1935</v>
-      </c>
-      <c r="AC22" s="9">
-        <f t="shared" si="11"/>
-        <v>33.775500000000001</v>
-      </c>
-      <c r="AD22" s="8">
-        <f t="shared" si="12"/>
-        <v>200.77447500000002</v>
+        <v>158.85000000000002</v>
       </c>
       <c r="AE22" s="8"/>
       <c r="AF22" s="9">
-        <f t="shared" si="13"/>
-        <v>144.96899999999999</v>
+        <f t="shared" si="11"/>
+        <v>114</v>
       </c>
       <c r="AP22" s="2"/>
     </row>
@@ -3472,13 +3420,13 @@
         <v>1</v>
       </c>
       <c r="S23">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V23" s="2">
         <v>53.255679999999991</v>
@@ -3487,36 +3435,34 @@
         <v>16.176639999999999</v>
       </c>
       <c r="X23" s="7" t="str">
-        <f t="shared" ref="X23" si="23">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X23" si="21">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y23" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>19</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
         <f t="shared" si="8"/>
-        <v>66.018759999999986</v>
-      </c>
-      <c r="Z23" s="9">
+        <v>40</v>
+      </c>
+      <c r="AC23" s="9">
         <f t="shared" si="9"/>
-        <v>20.05348</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="9">
+        <v>19</v>
+      </c>
+      <c r="AD23" s="8">
         <f t="shared" si="10"/>
-        <v>66.018759999999986</v>
-      </c>
-      <c r="AC23" s="9">
-        <f t="shared" si="11"/>
-        <v>20.05348</v>
-      </c>
-      <c r="AD23" s="8">
-        <f t="shared" si="12"/>
-        <v>119.20554599999998</v>
+        <v>82.5</v>
       </c>
       <c r="AE23" s="8"/>
       <c r="AF23" s="9">
-        <f t="shared" si="13"/>
-        <v>86.072239999999994</v>
+        <f t="shared" si="11"/>
+        <v>59</v>
       </c>
       <c r="AP23" s="2"/>
     </row>
@@ -3577,13 +3523,13 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>3.8400000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V24">
         <v>122.474</v>
@@ -3595,32 +3541,30 @@
         <v>-0.39</v>
       </c>
       <c r="Y24" s="9">
+        <v>115</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>41</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
         <f t="shared" si="8"/>
-        <v>74.709139999999991</v>
-      </c>
-      <c r="Z24" s="9">
+        <v>115</v>
+      </c>
+      <c r="AC24" s="9">
         <f t="shared" si="9"/>
-        <v>22.693220000000004</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="9">
+        <v>41</v>
+      </c>
+      <c r="AD24" s="8">
         <f t="shared" si="10"/>
-        <v>74.709139999999991</v>
-      </c>
-      <c r="AC24" s="9">
-        <f t="shared" si="11"/>
-        <v>22.693220000000004</v>
-      </c>
-      <c r="AD24" s="8">
-        <f t="shared" si="12"/>
-        <v>134.89716900000002</v>
+        <v>216.75</v>
       </c>
       <c r="AE24" s="8"/>
       <c r="AF24" s="9">
-        <f t="shared" si="13"/>
-        <v>97.402359999999987</v>
+        <f t="shared" si="11"/>
+        <v>156</v>
       </c>
       <c r="AP24" s="2"/>
     </row>
@@ -3681,13 +3625,13 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V25">
         <v>46.504959999999997</v>
@@ -3696,36 +3640,34 @@
         <v>14.12608</v>
       </c>
       <c r="X25" s="7" t="str">
-        <f t="shared" ref="X25" si="24">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X25" si="22">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y25" s="9">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>18</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
         <f t="shared" si="8"/>
-        <v>67.647840000000002</v>
-      </c>
-      <c r="Z25" s="9">
+        <v>36</v>
+      </c>
+      <c r="AC25" s="9">
         <f t="shared" si="9"/>
-        <v>20.54832</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD25" s="8">
         <f t="shared" si="10"/>
-        <v>67.647840000000002</v>
-      </c>
-      <c r="AC25" s="9">
-        <f t="shared" si="11"/>
-        <v>20.54832</v>
-      </c>
-      <c r="AD25" s="8">
-        <f t="shared" si="12"/>
-        <v>122.14706400000001</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="AE25" s="8"/>
       <c r="AF25" s="9">
-        <f t="shared" si="13"/>
-        <v>88.196160000000006</v>
+        <f t="shared" si="11"/>
+        <v>54</v>
       </c>
       <c r="AP25" s="2"/>
     </row>
@@ -3786,13 +3728,13 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>3.8400000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V26">
         <v>109.58200000000001</v>
@@ -3804,32 +3746,30 @@
         <v>0.05</v>
       </c>
       <c r="Y26" s="9">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="9">
         <f t="shared" si="8"/>
-        <v>115.06110000000001</v>
-      </c>
-      <c r="Z26" s="9">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="9">
         <f t="shared" si="9"/>
-        <v>34.950299999999999</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="AD26" s="8">
         <f t="shared" si="10"/>
-        <v>115.06110000000001</v>
-      </c>
-      <c r="AC26" s="9">
-        <f t="shared" si="11"/>
-        <v>34.950299999999999</v>
-      </c>
-      <c r="AD26" s="8">
-        <f t="shared" si="12"/>
-        <v>207.75793500000003</v>
+        <v>191.25</v>
       </c>
       <c r="AE26" s="8"/>
       <c r="AF26" s="9">
-        <f t="shared" si="13"/>
-        <v>150.01140000000001</v>
+        <f t="shared" si="11"/>
+        <v>137.5</v>
       </c>
       <c r="AP26" s="2"/>
     </row>
@@ -3890,13 +3830,13 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27">
         <v>40.50432</v>
@@ -3905,39 +3845,41 @@
         <v>12.30336</v>
       </c>
       <c r="X27" s="7" t="str">
-        <f t="shared" ref="X27" si="25">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X27" si="23">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y27" s="9">
+        <v>31</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9">
         <f t="shared" si="8"/>
-        <v>37.764769999999999</v>
-      </c>
-      <c r="Z27" s="9">
+        <v>31</v>
+      </c>
+      <c r="AC27" s="9">
         <f t="shared" si="9"/>
-        <v>11.471209999999999</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD27" s="8">
         <f t="shared" si="10"/>
-        <v>37.764769999999999</v>
-      </c>
-      <c r="AC27" s="9">
-        <f t="shared" si="11"/>
-        <v>11.471209999999999</v>
-      </c>
-      <c r="AD27" s="8">
-        <f t="shared" si="12"/>
-        <v>68.189254500000004</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="AE27" s="8"/>
       <c r="AF27" s="9">
-        <f t="shared" si="13"/>
-        <v>49.235979999999998</v>
+        <f t="shared" si="11"/>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
@@ -4002,38 +3944,32 @@
         <v>0</v>
       </c>
       <c r="X28" s="4"/>
-      <c r="Y28" s="9">
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="9">
+      <c r="AC28" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="9">
+      <c r="AD28" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="8">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE28" s="8"/>
       <c r="AF28" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f>IF(B29=B27,A27,A27+1)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B29" t="s">
@@ -4094,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>31.503359999999997</v>
@@ -4103,36 +4039,34 @@
         <v>9.5692799999999991</v>
       </c>
       <c r="X29" s="7" t="str">
-        <f t="shared" ref="X29" si="26">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X29" si="24">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y29" s="9">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="9">
         <f t="shared" si="8"/>
-        <v>31.503359999999997</v>
-      </c>
-      <c r="Z29" s="9">
+        <v>24</v>
+      </c>
+      <c r="AC29" s="9">
         <f t="shared" si="9"/>
-        <v>9.5692799999999991</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="9">
+        <v>10</v>
+      </c>
+      <c r="AD29" s="8">
         <f t="shared" si="10"/>
-        <v>31.503359999999997</v>
-      </c>
-      <c r="AC29" s="9">
-        <f t="shared" si="11"/>
-        <v>9.5692799999999991</v>
-      </c>
-      <c r="AD29" s="8">
-        <f t="shared" si="12"/>
-        <v>56.883455999999995</v>
+        <v>47.400000000000006</v>
       </c>
       <c r="AE29" s="8"/>
       <c r="AF29" s="9">
-        <f t="shared" si="13"/>
-        <v>41.072639999999993</v>
+        <f t="shared" si="11"/>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.35">
@@ -4198,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>35.453000000000003</v>
@@ -4210,32 +4144,30 @@
         <v>0</v>
       </c>
       <c r="Y30" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>18.5</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="9">
         <f t="shared" si="8"/>
-        <v>35.453000000000003</v>
-      </c>
-      <c r="Z30" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="AC30" s="9">
         <f t="shared" si="9"/>
-        <v>10.769</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="9">
+        <v>18.5</v>
+      </c>
+      <c r="AD30" s="8">
         <f t="shared" si="10"/>
-        <v>35.453000000000003</v>
-      </c>
-      <c r="AC30" s="9">
-        <f t="shared" si="11"/>
-        <v>10.769</v>
-      </c>
-      <c r="AD30" s="8">
-        <f t="shared" si="12"/>
-        <v>64.015050000000002</v>
+        <v>71.625</v>
       </c>
       <c r="AE30" s="8"/>
       <c r="AF30" s="9">
-        <f t="shared" si="13"/>
-        <v>46.222000000000001</v>
+        <f t="shared" si="11"/>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.35">
@@ -4301,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>3.7504</v>
@@ -4310,36 +4242,34 @@
         <v>1.1392</v>
       </c>
       <c r="X31" s="7" t="str">
-        <f t="shared" ref="X31" si="27">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X31" si="25">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>8</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="9">
         <f t="shared" si="8"/>
-        <v>3.7504</v>
-      </c>
-      <c r="Z31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="9">
         <f t="shared" si="9"/>
-        <v>1.1392</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="9">
+        <v>8</v>
+      </c>
+      <c r="AD31" s="8">
         <f t="shared" si="10"/>
-        <v>3.7504</v>
-      </c>
-      <c r="AC31" s="9">
-        <f t="shared" si="11"/>
-        <v>1.1392</v>
-      </c>
-      <c r="AD31" s="8">
-        <f t="shared" si="12"/>
-        <v>6.7718400000000001</v>
+        <v>12</v>
       </c>
       <c r="AE31" s="8"/>
       <c r="AF31" s="9">
-        <f t="shared" si="13"/>
-        <v>4.8895999999999997</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.35">
@@ -4405,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>35.453000000000003</v>
@@ -4417,32 +4347,30 @@
         <v>0</v>
       </c>
       <c r="Y32" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="9">
         <f t="shared" si="8"/>
-        <v>35.453000000000003</v>
-      </c>
-      <c r="Z32" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="AC32" s="9">
         <f t="shared" si="9"/>
-        <v>10.769</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="9">
+        <v>20</v>
+      </c>
+      <c r="AD32" s="8">
         <f t="shared" si="10"/>
-        <v>35.453000000000003</v>
-      </c>
-      <c r="AC32" s="9">
-        <f t="shared" si="11"/>
-        <v>10.769</v>
-      </c>
-      <c r="AD32" s="8">
-        <f t="shared" si="12"/>
-        <v>64.015050000000002</v>
+        <v>73.875</v>
       </c>
       <c r="AE32" s="8"/>
       <c r="AF32" s="9">
-        <f t="shared" si="13"/>
-        <v>46.222000000000001</v>
+        <f t="shared" si="11"/>
+        <v>52.5</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
@@ -4508,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>36.003839999999997</v>
@@ -4517,36 +4445,34 @@
         <v>10.936319999999998</v>
       </c>
       <c r="X33" s="7" t="str">
-        <f t="shared" ref="X33" si="28">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X33" si="26">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y33" s="9">
+        <v>28</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="9">
         <f t="shared" si="8"/>
-        <v>36.003839999999997</v>
-      </c>
-      <c r="Z33" s="9">
+        <v>28</v>
+      </c>
+      <c r="AC33" s="9">
         <f t="shared" si="9"/>
-        <v>10.936319999999998</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD33" s="8">
         <f t="shared" si="10"/>
-        <v>36.003839999999997</v>
-      </c>
-      <c r="AC33" s="9">
-        <f t="shared" si="11"/>
-        <v>10.936319999999998</v>
-      </c>
-      <c r="AD33" s="8">
-        <f t="shared" si="12"/>
-        <v>65.009664000000001</v>
+        <v>60.300000000000004</v>
       </c>
       <c r="AE33" s="8"/>
       <c r="AF33" s="9">
-        <f t="shared" si="13"/>
-        <v>46.940159999999992</v>
+        <f t="shared" si="11"/>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
@@ -4612,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>58.014000000000003</v>
@@ -4624,32 +4550,30 @@
         <v>0</v>
       </c>
       <c r="Y34" s="9">
+        <v>53</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>21.5</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="9">
         <f t="shared" si="8"/>
-        <v>58.014000000000003</v>
-      </c>
-      <c r="Z34" s="9">
+        <v>53</v>
+      </c>
+      <c r="AC34" s="9">
         <f t="shared" si="9"/>
-        <v>17.622000000000003</v>
-      </c>
-      <c r="AA34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="9">
+        <v>21.5</v>
+      </c>
+      <c r="AD34" s="8">
         <f t="shared" si="10"/>
-        <v>58.014000000000003</v>
-      </c>
-      <c r="AC34" s="9">
-        <f t="shared" si="11"/>
-        <v>17.622000000000003</v>
-      </c>
-      <c r="AD34" s="8">
-        <f t="shared" si="12"/>
-        <v>104.75190000000002</v>
+        <v>103.80000000000001</v>
       </c>
       <c r="AE34" s="8"/>
       <c r="AF34" s="9">
-        <f t="shared" si="13"/>
-        <v>75.63600000000001</v>
+        <f t="shared" si="11"/>
+        <v>74.5</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
@@ -4715,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>31.503359999999997</v>
@@ -4724,36 +4648,34 @@
         <v>9.5692799999999991</v>
       </c>
       <c r="X35" s="7" t="str">
-        <f t="shared" ref="X35" si="29">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X35" si="27">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y35" s="9">
+        <v>24</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="9">
         <f t="shared" si="8"/>
-        <v>31.503359999999997</v>
-      </c>
-      <c r="Z35" s="9">
+        <v>24</v>
+      </c>
+      <c r="AC35" s="9">
         <f t="shared" si="9"/>
-        <v>9.5692799999999991</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="9">
+        <v>14</v>
+      </c>
+      <c r="AD35" s="8">
         <f t="shared" si="10"/>
-        <v>31.503359999999997</v>
-      </c>
-      <c r="AC35" s="9">
-        <f t="shared" si="11"/>
-        <v>9.5692799999999991</v>
-      </c>
-      <c r="AD35" s="8">
-        <f t="shared" si="12"/>
-        <v>56.883455999999995</v>
+        <v>53.400000000000006</v>
       </c>
       <c r="AE35" s="8"/>
       <c r="AF35" s="9">
-        <f t="shared" si="13"/>
-        <v>41.072639999999993</v>
+        <f t="shared" si="11"/>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
@@ -4819,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>40.609800000000007</v>
@@ -4831,32 +4753,30 @@
         <v>0</v>
       </c>
       <c r="Y36" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="9">
         <f t="shared" si="8"/>
-        <v>40.609800000000007</v>
-      </c>
-      <c r="Z36" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="AC36" s="9">
         <f t="shared" si="9"/>
-        <v>12.335400000000002</v>
-      </c>
-      <c r="AA36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="9">
+        <v>20</v>
+      </c>
+      <c r="AD36" s="8">
         <f t="shared" si="10"/>
-        <v>40.609800000000007</v>
-      </c>
-      <c r="AC36" s="9">
-        <f t="shared" si="11"/>
-        <v>12.335400000000002</v>
-      </c>
-      <c r="AD36" s="8">
-        <f t="shared" si="12"/>
-        <v>73.326330000000013</v>
+        <v>80.625</v>
       </c>
       <c r="AE36" s="8"/>
       <c r="AF36" s="9">
-        <f t="shared" si="13"/>
-        <v>52.945200000000007</v>
+        <f t="shared" si="11"/>
+        <v>57.5</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
@@ -4922,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <v>21.00224</v>
@@ -4931,39 +4851,41 @@
         <v>6.3795200000000003</v>
       </c>
       <c r="X37" s="7" t="str">
-        <f t="shared" ref="X37" si="30">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X37" si="28">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y37" s="9">
+        <v>17</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="9">
         <f t="shared" si="8"/>
-        <v>21.00224</v>
-      </c>
-      <c r="Z37" s="9">
+        <v>17</v>
+      </c>
+      <c r="AC37" s="9">
         <f t="shared" si="9"/>
-        <v>6.3795200000000003</v>
-      </c>
-      <c r="AA37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="9">
+        <v>10</v>
+      </c>
+      <c r="AD37" s="8">
         <f t="shared" si="10"/>
-        <v>21.00224</v>
-      </c>
-      <c r="AC37" s="9">
-        <f t="shared" si="11"/>
-        <v>6.3795200000000003</v>
-      </c>
-      <c r="AD37" s="8">
-        <f t="shared" si="12"/>
-        <v>37.922304000000004</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="AE37" s="8"/>
       <c r="AF37" s="9">
-        <f t="shared" si="13"/>
-        <v>27.38176</v>
+        <f t="shared" si="11"/>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="B38" t="s">
         <v>50</v>
       </c>
@@ -5028,38 +4950,32 @@
         <v>0</v>
       </c>
       <c r="X38" s="4"/>
-      <c r="Y38" s="9">
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="9">
+      <c r="AC38" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="9">
+      <c r="AD38" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="8">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE38" s="8"/>
       <c r="AF38" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39">
-        <f>IF(B39=B37,A37,A37+1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B39" t="s">
@@ -5114,13 +5030,13 @@
         <v>1</v>
       </c>
       <c r="S39">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V39">
         <v>31.503359999999997</v>
@@ -5129,36 +5045,34 @@
         <v>9.5692799999999991</v>
       </c>
       <c r="X39" s="7" t="str">
-        <f t="shared" ref="X39" si="31">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X39" si="29">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y39" s="9">
+        <v>25</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="9">
         <f t="shared" si="8"/>
-        <v>31.503359999999997</v>
-      </c>
-      <c r="Z39" s="9">
+        <v>25</v>
+      </c>
+      <c r="AC39" s="9">
         <f t="shared" si="9"/>
-        <v>9.5692799999999991</v>
-      </c>
-      <c r="AA39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="9">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="8">
         <f t="shared" si="10"/>
-        <v>31.503359999999997</v>
-      </c>
-      <c r="AC39" s="9">
-        <f t="shared" si="11"/>
-        <v>9.5692799999999991</v>
-      </c>
-      <c r="AD39" s="8">
-        <f t="shared" si="12"/>
-        <v>56.883455999999995</v>
+        <v>48.75</v>
       </c>
       <c r="AE39" s="8"/>
       <c r="AF39" s="9">
-        <f t="shared" si="13"/>
-        <v>41.072639999999993</v>
+        <f t="shared" si="11"/>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
@@ -5224,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>61.237000000000002</v>
@@ -5236,32 +5150,30 @@
         <v>0</v>
       </c>
       <c r="Y40" s="9">
+        <v>55</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>23</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="9">
         <f t="shared" si="8"/>
-        <v>61.237000000000002</v>
-      </c>
-      <c r="Z40" s="9">
+        <v>55</v>
+      </c>
+      <c r="AC40" s="9">
         <f t="shared" si="9"/>
-        <v>18.601000000000003</v>
-      </c>
-      <c r="AA40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="9">
+        <v>23</v>
+      </c>
+      <c r="AD40" s="8">
         <f t="shared" si="10"/>
-        <v>61.237000000000002</v>
-      </c>
-      <c r="AC40" s="9">
-        <f t="shared" si="11"/>
-        <v>18.601000000000003</v>
-      </c>
-      <c r="AD40" s="8">
-        <f t="shared" si="12"/>
-        <v>110.57145000000003</v>
+        <v>108.75</v>
       </c>
       <c r="AE40" s="8"/>
       <c r="AF40" s="9">
-        <f t="shared" si="13"/>
-        <v>79.838000000000008</v>
+        <f t="shared" si="11"/>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
@@ -5321,13 +5233,13 @@
         <v>1</v>
       </c>
       <c r="S41">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V41">
         <v>15.751679999999999</v>
@@ -5336,36 +5248,34 @@
         <v>4.7846399999999996</v>
       </c>
       <c r="X41" s="7" t="str">
-        <f t="shared" ref="X41" si="32">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X41" si="30">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y41" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>12</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="9">
         <f t="shared" si="8"/>
-        <v>15.751679999999999</v>
-      </c>
-      <c r="Z41" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="AC41" s="9">
         <f t="shared" si="9"/>
-        <v>4.7846399999999996</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="9">
+        <v>12</v>
+      </c>
+      <c r="AD41" s="8">
         <f t="shared" si="10"/>
-        <v>15.751679999999999</v>
-      </c>
-      <c r="AC41" s="9">
-        <f t="shared" si="11"/>
-        <v>4.7846399999999996</v>
-      </c>
-      <c r="AD41" s="8">
-        <f t="shared" si="12"/>
-        <v>28.441727999999998</v>
+        <v>34.875</v>
       </c>
       <c r="AE41" s="8"/>
       <c r="AF41" s="9">
-        <f t="shared" si="13"/>
-        <v>20.536319999999996</v>
+        <f t="shared" si="11"/>
+        <v>24.5</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
@@ -5431,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>90.244</v>
@@ -5443,32 +5353,30 @@
         <v>0</v>
       </c>
       <c r="Y42" s="9">
+        <v>82.5</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>33</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="9">
         <f t="shared" si="8"/>
-        <v>90.244</v>
-      </c>
-      <c r="Z42" s="9">
+        <v>82.5</v>
+      </c>
+      <c r="AC42" s="9">
         <f t="shared" si="9"/>
-        <v>27.411999999999999</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="9">
+        <v>33</v>
+      </c>
+      <c r="AD42" s="8">
         <f t="shared" si="10"/>
-        <v>90.244</v>
-      </c>
-      <c r="AC42" s="9">
-        <f t="shared" si="11"/>
-        <v>27.411999999999999</v>
-      </c>
-      <c r="AD42" s="8">
-        <f t="shared" si="12"/>
-        <v>162.94740000000002</v>
+        <v>160.875</v>
       </c>
       <c r="AE42" s="8"/>
       <c r="AF42" s="9">
-        <f t="shared" si="13"/>
-        <v>117.65600000000001</v>
+        <f t="shared" si="11"/>
+        <v>115.5</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
@@ -5528,13 +5436,13 @@
         <v>1</v>
       </c>
       <c r="S43">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V43">
         <v>49.505279999999999</v>
@@ -5543,36 +5451,34 @@
         <v>15.03744</v>
       </c>
       <c r="X43" s="7" t="str">
-        <f t="shared" ref="X43" si="33">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X43" si="31">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y43" s="9">
+        <v>38</v>
+      </c>
+      <c r="Z43" s="9">
+        <v>18</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="9">
         <f t="shared" si="8"/>
-        <v>52.454324999999997</v>
-      </c>
-      <c r="Z43" s="9">
+        <v>38</v>
+      </c>
+      <c r="AC43" s="9">
         <f t="shared" si="9"/>
-        <v>15.933225</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD43" s="8">
         <f t="shared" si="10"/>
-        <v>52.454324999999997</v>
-      </c>
-      <c r="AC43" s="9">
-        <f t="shared" si="11"/>
-        <v>15.933225</v>
-      </c>
-      <c r="AD43" s="8">
-        <f t="shared" si="12"/>
-        <v>94.713176250000004</v>
+        <v>78.300000000000011</v>
       </c>
       <c r="AE43" s="8"/>
       <c r="AF43" s="9">
-        <f t="shared" si="13"/>
-        <v>68.387550000000005</v>
+        <f t="shared" si="11"/>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
@@ -5632,13 +5538,13 @@
         <v>1</v>
       </c>
       <c r="S44">
-        <v>3.8400000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V44">
         <v>117.9618</v>
@@ -5650,32 +5556,30 @@
         <v>-0.05</v>
       </c>
       <c r="Y44" s="9">
+        <v>108.5</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>39</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="9">
         <f t="shared" si="8"/>
-        <v>112.06371</v>
-      </c>
-      <c r="Z44" s="9">
+        <v>108.5</v>
+      </c>
+      <c r="AC44" s="9">
         <f t="shared" si="9"/>
-        <v>34.039830000000002</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="9">
+        <v>39</v>
+      </c>
+      <c r="AD44" s="8">
         <f t="shared" si="10"/>
-        <v>112.06371</v>
-      </c>
-      <c r="AC44" s="9">
-        <f t="shared" si="11"/>
-        <v>34.039830000000002</v>
-      </c>
-      <c r="AD44" s="8">
-        <f t="shared" si="12"/>
-        <v>202.3457535</v>
+        <v>204.97500000000002</v>
       </c>
       <c r="AE44" s="8"/>
       <c r="AF44" s="9">
-        <f t="shared" si="13"/>
-        <v>146.10354000000001</v>
+        <f t="shared" si="11"/>
+        <v>147.5</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
@@ -5735,13 +5639,13 @@
         <v>1</v>
       </c>
       <c r="S45">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V45">
         <v>45.004799999999996</v>
@@ -5750,36 +5654,34 @@
         <v>13.670399999999999</v>
       </c>
       <c r="X45" s="7" t="str">
-        <f t="shared" ref="X45" si="34">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X45" si="32">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y45" s="9">
+        <v>35</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>18</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="9">
         <f t="shared" si="8"/>
-        <v>47.953844999999994</v>
-      </c>
-      <c r="Z45" s="9">
+        <v>35</v>
+      </c>
+      <c r="AC45" s="9">
         <f t="shared" si="9"/>
-        <v>14.566184999999999</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD45" s="8">
         <f t="shared" si="10"/>
-        <v>47.953844999999994</v>
-      </c>
-      <c r="AC45" s="9">
-        <f t="shared" si="11"/>
-        <v>14.566184999999999</v>
-      </c>
-      <c r="AD45" s="8">
-        <f t="shared" si="12"/>
-        <v>86.586968249999998</v>
+        <v>74.25</v>
       </c>
       <c r="AE45" s="8"/>
       <c r="AF45" s="9">
-        <f t="shared" si="13"/>
-        <v>62.520029999999991</v>
+        <f t="shared" si="11"/>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
@@ -5839,13 +5741,13 @@
         <v>1</v>
       </c>
       <c r="S46">
-        <v>3.8400000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T46">
         <v>0</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V46">
         <v>101.8468</v>
@@ -5857,32 +5759,30 @@
         <v>0</v>
       </c>
       <c r="Y46" s="9">
+        <v>95</v>
+      </c>
+      <c r="Z46" s="9">
+        <v>35</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="9">
         <f t="shared" si="8"/>
-        <v>101.8468</v>
-      </c>
-      <c r="Z46" s="9">
+        <v>95</v>
+      </c>
+      <c r="AC46" s="9">
         <f t="shared" si="9"/>
-        <v>30.936399999999999</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="9">
+        <v>35</v>
+      </c>
+      <c r="AD46" s="8">
         <f t="shared" si="10"/>
-        <v>101.8468</v>
-      </c>
-      <c r="AC46" s="9">
-        <f t="shared" si="11"/>
-        <v>30.936399999999999</v>
-      </c>
-      <c r="AD46" s="8">
-        <f t="shared" si="12"/>
-        <v>183.89778000000001</v>
+        <v>180.75</v>
       </c>
       <c r="AE46" s="8"/>
       <c r="AF46" s="9">
-        <f t="shared" si="13"/>
-        <v>132.78319999999999</v>
+        <f t="shared" si="11"/>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
@@ -5942,13 +5842,13 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V47">
         <v>34.503680000000003</v>
@@ -5957,39 +5857,41 @@
         <v>10.480639999999999</v>
       </c>
       <c r="X47" s="7" t="str">
-        <f t="shared" ref="X47" si="35">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X47" si="33">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y47" s="9">
+        <v>27</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>13</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="9">
         <f t="shared" si="8"/>
-        <v>34.503680000000003</v>
-      </c>
-      <c r="Z47" s="9">
+        <v>27</v>
+      </c>
+      <c r="AC47" s="9">
         <f t="shared" si="9"/>
-        <v>10.480639999999999</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="9">
+        <v>13</v>
+      </c>
+      <c r="AD47" s="8">
         <f t="shared" si="10"/>
-        <v>34.503680000000003</v>
-      </c>
-      <c r="AC47" s="9">
-        <f t="shared" si="11"/>
-        <v>10.480639999999999</v>
-      </c>
-      <c r="AD47" s="8">
-        <f t="shared" si="12"/>
-        <v>62.300928000000006</v>
+        <v>55.95</v>
       </c>
       <c r="AE47" s="8"/>
       <c r="AF47" s="9">
-        <f t="shared" si="13"/>
-        <v>44.984320000000004</v>
+        <f t="shared" si="11"/>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -6054,38 +5956,32 @@
         <v>0</v>
       </c>
       <c r="X48" s="4"/>
-      <c r="Y48" s="9">
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z48" s="9">
+      <c r="AC48" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="9">
+      <c r="AD48" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="8">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE48" s="8"/>
       <c r="AF48" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49">
-        <f>IF(B49=B47,A47,A47+1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B49" t="s">
@@ -6140,13 +6036,13 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V49">
         <v>48.005119999999998</v>
@@ -6155,39 +6051,37 @@
         <v>14.581759999999999</v>
       </c>
       <c r="X49" s="7" t="str">
-        <f t="shared" ref="X49" si="36">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X49" si="34">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y49" s="9">
+        <v>36</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>13</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="9">
         <f t="shared" si="8"/>
-        <v>42.461559999999999</v>
-      </c>
-      <c r="Z49" s="9">
+        <v>36</v>
+      </c>
+      <c r="AC49" s="9">
         <f t="shared" si="9"/>
-        <v>12.897879999999999</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="9">
+        <v>13</v>
+      </c>
+      <c r="AD49" s="8">
         <f t="shared" si="10"/>
-        <v>42.461559999999999</v>
-      </c>
-      <c r="AC49" s="9">
-        <f t="shared" si="11"/>
-        <v>12.897879999999999</v>
-      </c>
-      <c r="AD49" s="8">
-        <f t="shared" si="12"/>
-        <v>76.669926000000004</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="AE49" s="8"/>
       <c r="AF49" s="9">
-        <f t="shared" si="13"/>
-        <v>55.359439999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -6244,13 +6138,13 @@
         <v>1</v>
       </c>
       <c r="S50">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V50">
         <v>110.8712</v>
@@ -6262,35 +6156,33 @@
         <v>0.1</v>
       </c>
       <c r="Y50" s="9">
+        <v>105</v>
+      </c>
+      <c r="Z50" s="9">
+        <v>34</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="9">
         <f t="shared" si="8"/>
-        <v>121.95832</v>
-      </c>
-      <c r="Z50" s="9">
+        <v>105</v>
+      </c>
+      <c r="AC50" s="9">
         <f t="shared" si="9"/>
-        <v>37.045359999999995</v>
-      </c>
-      <c r="AA50" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="9">
+        <v>34</v>
+      </c>
+      <c r="AD50" s="8">
         <f t="shared" si="10"/>
-        <v>121.95832</v>
-      </c>
-      <c r="AC50" s="9">
-        <f t="shared" si="11"/>
-        <v>37.045359999999995</v>
-      </c>
-      <c r="AD50" s="8">
-        <f t="shared" si="12"/>
-        <v>220.211772</v>
+        <v>192.75</v>
       </c>
       <c r="AE50" s="8"/>
       <c r="AF50" s="9">
-        <f t="shared" si="13"/>
-        <v>159.00368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -6347,13 +6239,13 @@
         <v>1</v>
       </c>
       <c r="S51">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V51">
         <v>42.004480000000001</v>
@@ -6362,39 +6254,37 @@
         <v>12.759040000000001</v>
       </c>
       <c r="X51" s="7" t="str">
-        <f t="shared" ref="X51" si="37">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X51" si="35">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y51" s="9">
+        <v>32</v>
+      </c>
+      <c r="Z51" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="9">
         <f t="shared" si="8"/>
-        <v>26.0184</v>
-      </c>
-      <c r="Z51" s="9">
+        <v>32</v>
+      </c>
+      <c r="AC51" s="9">
         <f t="shared" si="9"/>
-        <v>7.9032</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD51" s="8">
         <f t="shared" si="10"/>
-        <v>26.0184</v>
-      </c>
-      <c r="AC51" s="9">
-        <f t="shared" si="11"/>
-        <v>7.9032</v>
-      </c>
-      <c r="AD51" s="8">
-        <f t="shared" si="12"/>
-        <v>46.979640000000003</v>
+        <v>65.7</v>
       </c>
       <c r="AE51" s="8"/>
       <c r="AF51" s="9">
-        <f t="shared" si="13"/>
-        <v>33.921599999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -6451,13 +6341,13 @@
         <v>1</v>
       </c>
       <c r="S52">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T52">
         <v>0</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V52">
         <v>116.02800000000001</v>
@@ -6469,35 +6359,33 @@
         <v>0.18</v>
       </c>
       <c r="Y52" s="9">
+        <v>106.5</v>
+      </c>
+      <c r="Z52" s="9">
+        <v>38</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="9">
         <f t="shared" si="8"/>
-        <v>136.91304</v>
-      </c>
-      <c r="Z52" s="9">
+        <v>106.5</v>
+      </c>
+      <c r="AC52" s="9">
         <f t="shared" si="9"/>
-        <v>41.587920000000011</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="9">
+        <v>38</v>
+      </c>
+      <c r="AD52" s="8">
         <f t="shared" si="10"/>
-        <v>136.91304</v>
-      </c>
-      <c r="AC52" s="9">
-        <f t="shared" si="11"/>
-        <v>41.587920000000011</v>
-      </c>
-      <c r="AD52" s="8">
-        <f t="shared" si="12"/>
-        <v>247.21448400000003</v>
+        <v>200.77500000000001</v>
       </c>
       <c r="AE52" s="8"/>
       <c r="AF52" s="9">
-        <f t="shared" si="13"/>
-        <v>178.50096000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -6554,13 +6442,13 @@
         <v>1</v>
       </c>
       <c r="S53">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V53">
         <v>48.755200000000002</v>
@@ -6569,39 +6457,37 @@
         <v>14.8096</v>
       </c>
       <c r="X53" s="7" t="str">
-        <f t="shared" ref="X53" si="38">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X53" si="36">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y53" s="9">
+        <v>38</v>
+      </c>
+      <c r="Z53" s="9">
+        <v>17</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="9">
         <f t="shared" si="8"/>
-        <v>38.31268</v>
-      </c>
-      <c r="Z53" s="9">
+        <v>38</v>
+      </c>
+      <c r="AC53" s="9">
         <f t="shared" si="9"/>
-        <v>11.637639999999999</v>
-      </c>
-      <c r="AA53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="9">
+        <v>17</v>
+      </c>
+      <c r="AD53" s="8">
         <f t="shared" si="10"/>
-        <v>38.31268</v>
-      </c>
-      <c r="AC53" s="9">
-        <f t="shared" si="11"/>
-        <v>11.637639999999999</v>
-      </c>
-      <c r="AD53" s="8">
-        <f t="shared" si="12"/>
-        <v>69.178578000000002</v>
+        <v>76.800000000000011</v>
       </c>
       <c r="AE53" s="8"/>
       <c r="AF53" s="9">
-        <f t="shared" si="13"/>
-        <v>49.950319999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -6658,13 +6544,13 @@
         <v>1</v>
       </c>
       <c r="S54">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V54">
         <v>128.92000000000002</v>
@@ -6676,35 +6562,33 @@
         <v>0</v>
       </c>
       <c r="Y54" s="9">
+        <v>118.5</v>
+      </c>
+      <c r="Z54" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="9">
         <f t="shared" si="8"/>
-        <v>128.92000000000002</v>
-      </c>
-      <c r="Z54" s="9">
+        <v>118.5</v>
+      </c>
+      <c r="AC54" s="9">
         <f t="shared" si="9"/>
-        <v>39.160000000000004</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="AD54" s="8">
         <f t="shared" si="10"/>
-        <v>128.92000000000002</v>
-      </c>
-      <c r="AC54" s="9">
-        <f t="shared" si="11"/>
-        <v>39.160000000000004</v>
-      </c>
-      <c r="AD54" s="8">
-        <f t="shared" si="12"/>
-        <v>232.78200000000004</v>
+        <v>223.72500000000002</v>
       </c>
       <c r="AE54" s="8"/>
       <c r="AF54" s="9">
-        <f t="shared" si="13"/>
-        <v>168.08</v>
-      </c>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -6761,13 +6645,13 @@
         <v>1</v>
       </c>
       <c r="S55">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V55">
         <v>53.255679999999991</v>
@@ -6776,39 +6660,37 @@
         <v>16.176639999999999</v>
       </c>
       <c r="X55" s="7" t="str">
-        <f t="shared" ref="X55" si="39">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X55" si="37">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y55" s="9">
+        <v>41</v>
+      </c>
+      <c r="Z55" s="9">
+        <v>18</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="9">
         <f t="shared" si="8"/>
-        <v>53.255679999999991</v>
-      </c>
-      <c r="Z55" s="9">
+        <v>41</v>
+      </c>
+      <c r="AC55" s="9">
         <f t="shared" si="9"/>
-        <v>16.176639999999999</v>
-      </c>
-      <c r="AA55" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD55" s="8">
         <f t="shared" si="10"/>
-        <v>53.255679999999991</v>
-      </c>
-      <c r="AC55" s="9">
-        <f t="shared" si="11"/>
-        <v>16.176639999999999</v>
-      </c>
-      <c r="AD55" s="8">
-        <f t="shared" si="12"/>
-        <v>96.160128</v>
+        <v>82.35</v>
       </c>
       <c r="AE55" s="8"/>
       <c r="AF55" s="9">
-        <f t="shared" si="13"/>
-        <v>69.43231999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -6865,13 +6747,13 @@
         <v>1</v>
       </c>
       <c r="S56">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V56">
         <v>128.92000000000002</v>
@@ -6883,35 +6765,33 @@
         <v>0</v>
       </c>
       <c r="Y56" s="9">
+        <v>118.5</v>
+      </c>
+      <c r="Z56" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="9">
         <f t="shared" si="8"/>
-        <v>128.92000000000002</v>
-      </c>
-      <c r="Z56" s="9">
+        <v>118.5</v>
+      </c>
+      <c r="AC56" s="9">
         <f t="shared" si="9"/>
-        <v>39.160000000000004</v>
-      </c>
-      <c r="AA56" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="AD56" s="8">
         <f t="shared" si="10"/>
-        <v>128.92000000000002</v>
-      </c>
-      <c r="AC56" s="9">
-        <f t="shared" si="11"/>
-        <v>39.160000000000004</v>
-      </c>
-      <c r="AD56" s="8">
-        <f t="shared" si="12"/>
-        <v>232.78200000000004</v>
+        <v>223.72500000000002</v>
       </c>
       <c r="AE56" s="8"/>
       <c r="AF56" s="9">
-        <f t="shared" si="13"/>
-        <v>168.08</v>
-      </c>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -6968,13 +6848,13 @@
         <v>1</v>
       </c>
       <c r="S57">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V57">
         <v>53.255679999999991</v>
@@ -6983,39 +6863,37 @@
         <v>16.176639999999999</v>
       </c>
       <c r="X57" s="7" t="str">
-        <f t="shared" ref="X57" si="40">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X57" si="38">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y57" s="9">
+        <v>41</v>
+      </c>
+      <c r="Z57" s="9">
+        <v>18</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="9">
         <f t="shared" si="8"/>
-        <v>53.255679999999991</v>
-      </c>
-      <c r="Z57" s="9">
+        <v>41</v>
+      </c>
+      <c r="AC57" s="9">
         <f t="shared" si="9"/>
-        <v>16.176639999999999</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD57" s="8">
         <f t="shared" si="10"/>
-        <v>53.255679999999991</v>
-      </c>
-      <c r="AC57" s="9">
-        <f t="shared" si="11"/>
-        <v>16.176639999999999</v>
-      </c>
-      <c r="AD57" s="8">
-        <f t="shared" si="12"/>
-        <v>96.160128</v>
+        <v>82.35</v>
       </c>
       <c r="AE57" s="8"/>
       <c r="AF57" s="9">
-        <f t="shared" si="13"/>
-        <v>69.43231999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -7072,13 +6950,13 @@
         <v>1</v>
       </c>
       <c r="S58">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V58">
         <v>122.474</v>
@@ -7090,35 +6968,33 @@
         <v>0</v>
       </c>
       <c r="Y58" s="9">
+        <v>118.5</v>
+      </c>
+      <c r="Z58" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="9">
         <f t="shared" si="8"/>
-        <v>122.474</v>
-      </c>
-      <c r="Z58" s="9">
+        <v>118.5</v>
+      </c>
+      <c r="AC58" s="9">
         <f t="shared" si="9"/>
-        <v>37.202000000000005</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="AD58" s="8">
         <f t="shared" si="10"/>
-        <v>122.474</v>
-      </c>
-      <c r="AC58" s="9">
-        <f t="shared" si="11"/>
-        <v>37.202000000000005</v>
-      </c>
-      <c r="AD58" s="8">
-        <f t="shared" si="12"/>
-        <v>221.14290000000005</v>
+        <v>223.72500000000002</v>
       </c>
       <c r="AE58" s="8"/>
       <c r="AF58" s="9">
-        <f t="shared" si="13"/>
-        <v>159.67600000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -7175,13 +7051,13 @@
         <v>1</v>
       </c>
       <c r="S59">
-        <v>5.7600000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T59">
         <v>0</v>
       </c>
       <c r="U59">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V59">
         <v>42.754560000000005</v>
@@ -7190,39 +7066,37 @@
         <v>12.986880000000001</v>
       </c>
       <c r="X59" s="7" t="str">
-        <f t="shared" ref="X59" si="41">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X59" si="39">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y59" s="9">
+        <v>41</v>
+      </c>
+      <c r="Z59" s="9">
+        <v>18</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="9">
         <f t="shared" si="8"/>
-        <v>42.754560000000005</v>
-      </c>
-      <c r="Z59" s="9">
+        <v>41</v>
+      </c>
+      <c r="AC59" s="9">
         <f t="shared" si="9"/>
-        <v>12.986880000000001</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD59" s="8">
         <f t="shared" si="10"/>
-        <v>42.754560000000005</v>
-      </c>
-      <c r="AC59" s="9">
-        <f t="shared" si="11"/>
-        <v>12.986880000000001</v>
-      </c>
-      <c r="AD59" s="8">
-        <f t="shared" si="12"/>
-        <v>77.198976000000016</v>
+        <v>82.35</v>
       </c>
       <c r="AE59" s="8"/>
       <c r="AF59" s="9">
-        <f t="shared" si="13"/>
-        <v>55.741440000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -7297,575 +7171,222 @@
         <v>0</v>
       </c>
       <c r="Y60" s="9">
+        <v>118.5</v>
+      </c>
+      <c r="Z60" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="9">
         <f t="shared" si="8"/>
-        <v>59.947800000000001</v>
-      </c>
-      <c r="Z60" s="9">
+        <v>118.5</v>
+      </c>
+      <c r="AC60" s="9">
         <f t="shared" si="9"/>
-        <v>18.209400000000002</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="AD60" s="8">
         <f t="shared" si="10"/>
-        <v>59.947800000000001</v>
-      </c>
-      <c r="AC60" s="9">
-        <f t="shared" si="11"/>
-        <v>18.209400000000002</v>
-      </c>
-      <c r="AD60" s="8">
-        <f t="shared" si="12"/>
-        <v>108.24363</v>
+        <v>223.72500000000002</v>
       </c>
       <c r="AE60" s="8"/>
       <c r="AF60" s="9">
-        <f t="shared" si="13"/>
-        <v>78.157200000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="11"/>
-      <c r="AC61" s="11"/>
-      <c r="AD61" s="11"/>
-      <c r="AE61" s="11"/>
-      <c r="AF61" s="11"/>
-      <c r="AG61" s="10"/>
-      <c r="AH61" s="10"/>
-      <c r="AI61" s="10"/>
-      <c r="AJ61" s="10"/>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="13"/>
-      <c r="AB62" s="11"/>
-      <c r="AC62" s="11"/>
-      <c r="AD62" s="11"/>
-      <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
-      <c r="AG62" s="10"/>
-      <c r="AH62" s="10"/>
-      <c r="AI62" s="10"/>
-      <c r="AJ62" s="10"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="13"/>
-      <c r="AB63" s="11"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
-      <c r="AG63" s="10"/>
-      <c r="AH63" s="10"/>
-      <c r="AI63" s="10"/>
-      <c r="AJ63" s="10"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="13"/>
-      <c r="AB64" s="11"/>
-      <c r="AC64" s="11"/>
-      <c r="AD64" s="11"/>
-      <c r="AE64" s="11"/>
-      <c r="AF64" s="11"/>
-      <c r="AG64" s="10"/>
-      <c r="AH64" s="10"/>
-      <c r="AI64" s="10"/>
-      <c r="AJ64" s="10"/>
-    </row>
-    <row r="65" spans="3:36" x14ac:dyDescent="0.35">
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="13"/>
-      <c r="AB65" s="11"/>
-      <c r="AC65" s="11"/>
-      <c r="AD65" s="11"/>
-      <c r="AE65" s="11"/>
-      <c r="AF65" s="11"/>
-      <c r="AG65" s="10"/>
-      <c r="AH65" s="10"/>
-      <c r="AI65" s="10"/>
-      <c r="AJ65" s="10"/>
-    </row>
-    <row r="66" spans="3:36" x14ac:dyDescent="0.35">
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-      <c r="AA66" s="13"/>
-      <c r="AB66" s="11"/>
-      <c r="AC66" s="11"/>
-      <c r="AD66" s="11"/>
-      <c r="AE66" s="11"/>
-      <c r="AF66" s="11"/>
-      <c r="AG66" s="10"/>
-      <c r="AH66" s="10"/>
-      <c r="AI66" s="10"/>
-      <c r="AJ66" s="10"/>
-    </row>
-    <row r="67" spans="3:36" x14ac:dyDescent="0.35">
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="15"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="13"/>
-      <c r="AB67" s="11"/>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="11"/>
-      <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
-      <c r="AG67" s="10"/>
-      <c r="AH67" s="10"/>
-      <c r="AI67" s="10"/>
-      <c r="AJ67" s="10"/>
-    </row>
-    <row r="68" spans="3:36" x14ac:dyDescent="0.35">
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="11"/>
-      <c r="Z68" s="11"/>
-      <c r="AA68" s="13"/>
-      <c r="AB68" s="11"/>
-      <c r="AC68" s="11"/>
-      <c r="AD68" s="11"/>
-      <c r="AE68" s="11"/>
-      <c r="AF68" s="11"/>
-      <c r="AG68" s="10"/>
-      <c r="AH68" s="10"/>
-      <c r="AI68" s="10"/>
-      <c r="AJ68" s="10"/>
-    </row>
-    <row r="69" spans="3:36" x14ac:dyDescent="0.35">
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="11"/>
-      <c r="AA69" s="13"/>
-      <c r="AB69" s="11"/>
-      <c r="AC69" s="11"/>
-      <c r="AD69" s="11"/>
-      <c r="AE69" s="11"/>
-      <c r="AF69" s="11"/>
-      <c r="AG69" s="10"/>
-      <c r="AH69" s="10"/>
-      <c r="AI69" s="10"/>
-      <c r="AJ69" s="10"/>
-    </row>
-    <row r="70" spans="3:36" x14ac:dyDescent="0.35">
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="11"/>
-      <c r="Z70" s="11"/>
-      <c r="AA70" s="13"/>
-      <c r="AB70" s="11"/>
-      <c r="AC70" s="11"/>
-      <c r="AD70" s="11"/>
-      <c r="AE70" s="11"/>
-      <c r="AF70" s="11"/>
-      <c r="AG70" s="10"/>
-      <c r="AH70" s="10"/>
-      <c r="AI70" s="10"/>
-      <c r="AJ70" s="10"/>
-    </row>
-    <row r="71" spans="3:36" x14ac:dyDescent="0.35">
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
-      <c r="AA71" s="13"/>
-      <c r="AB71" s="11"/>
-      <c r="AC71" s="11"/>
-      <c r="AD71" s="11"/>
-      <c r="AE71" s="11"/>
-      <c r="AF71" s="11"/>
-      <c r="AG71" s="10"/>
-      <c r="AH71" s="10"/>
-      <c r="AI71" s="10"/>
-      <c r="AJ71" s="10"/>
-    </row>
-    <row r="72" spans="3:36" x14ac:dyDescent="0.35">
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="11"/>
-      <c r="AC72" s="11"/>
-      <c r="AD72" s="11"/>
-      <c r="AE72" s="11"/>
-      <c r="AF72" s="11"/>
-      <c r="AG72" s="10"/>
-      <c r="AH72" s="10"/>
-      <c r="AI72" s="10"/>
-      <c r="AJ72" s="10"/>
-    </row>
-    <row r="73" spans="3:36" x14ac:dyDescent="0.35">
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="11"/>
-      <c r="AC73" s="11"/>
-      <c r="AD73" s="11"/>
-      <c r="AE73" s="11"/>
-      <c r="AF73" s="11"/>
-      <c r="AG73" s="10"/>
-      <c r="AH73" s="10"/>
-      <c r="AI73" s="10"/>
-      <c r="AJ73" s="10"/>
-    </row>
-    <row r="74" spans="3:36" x14ac:dyDescent="0.35">
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="11"/>
-      <c r="AC74" s="11"/>
-      <c r="AD74" s="11"/>
-      <c r="AE74" s="11"/>
-      <c r="AF74" s="11"/>
-      <c r="AG74" s="10"/>
-      <c r="AH74" s="10"/>
-      <c r="AI74" s="10"/>
-      <c r="AJ74" s="10"/>
-    </row>
-    <row r="75" spans="3:36" x14ac:dyDescent="0.35">
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="11"/>
-      <c r="AC75" s="11"/>
-      <c r="AD75" s="11"/>
-      <c r="AE75" s="11"/>
-      <c r="AF75" s="11"/>
-      <c r="AG75" s="10"/>
-      <c r="AH75" s="10"/>
-      <c r="AI75" s="10"/>
-      <c r="AJ75" s="10"/>
-    </row>
-    <row r="76" spans="3:36" x14ac:dyDescent="0.35">
+        <f t="shared" si="11"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="G64" s="1"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+    </row>
+    <row r="65" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
+    </row>
+    <row r="66" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
+      <c r="AF66" s="9"/>
+    </row>
+    <row r="67" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="G67" s="1"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+      <c r="AE67" s="9"/>
+      <c r="AF67" s="9"/>
+    </row>
+    <row r="68" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="G68" s="1"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="9"/>
+    </row>
+    <row r="69" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="9"/>
+    </row>
+    <row r="70" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
+      <c r="AE70" s="9"/>
+      <c r="AF70" s="9"/>
+    </row>
+    <row r="71" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="9"/>
+      <c r="AF71" s="9"/>
+    </row>
+    <row r="72" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+      <c r="AE72" s="9"/>
+      <c r="AF72" s="9"/>
+    </row>
+    <row r="73" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+      <c r="AE73" s="9"/>
+      <c r="AF73" s="9"/>
+    </row>
+    <row r="74" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="9"/>
+      <c r="AF74" s="9"/>
+    </row>
+    <row r="75" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="X75" s="7"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
+      <c r="AE75" s="9"/>
+      <c r="AF75" s="9"/>
+    </row>
+    <row r="76" spans="7:32" x14ac:dyDescent="0.35">
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
       <c r="AB76" s="9"/>
@@ -7876,14 +7397,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="X65:X66 X69:X75 X61:X63">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$A61="Travée"</formula>
+  <conditionalFormatting sqref="X3:X63">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$A3="Travée"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X60">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A3="Travée"</formula>
+  <conditionalFormatting sqref="X65:X66 X69:X75">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$A65="Travée"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
